--- a/prix/bicones.xlsx
+++ b/prix/bicones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A413A7-8FAA-4AA3-AAB3-D5830FB99346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1476A-415A-4C7D-9346-235F228FA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
   <si>
     <t>43107100</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>1/-12</t>
+  </si>
+  <si>
+    <t>disponible</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +604,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -641,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -673,6 +684,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F7123-4CF8-49A4-855C-11A40771464A}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,6 +1038,7 @@
     <col min="3" max="3" width="7.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" style="9" customWidth="1"/>
     <col min="5" max="5" width="22.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="13"/>
     <col min="7" max="7" width="23.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="2" customWidth="1"/>
     <col min="10" max="11" width="21.77734375" style="2" customWidth="1"/>
@@ -1043,6 +1061,9 @@
       <c r="E1" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1065,6 +1086,9 @@
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1082,6 +1106,9 @@
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1099,6 +1126,9 @@
       <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1116,6 +1146,9 @@
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1133,6 +1166,9 @@
       <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1150,6 +1186,9 @@
       <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1167,6 +1206,9 @@
       <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1184,6 +1226,9 @@
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1201,6 +1246,9 @@
       <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1218,6 +1266,9 @@
       <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1235,6 +1286,9 @@
       <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1252,6 +1306,9 @@
       <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1269,6 +1326,9 @@
       <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1286,6 +1346,9 @@
       <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1303,8 +1366,11 @@
       <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>143</v>
       </c>
@@ -1320,8 +1386,11 @@
       <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>143</v>
       </c>
@@ -1337,8 +1406,11 @@
       <c r="E18" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>143</v>
       </c>
@@ -1354,8 +1426,11 @@
       <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
@@ -1371,8 +1446,11 @@
       <c r="E20" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
@@ -1388,8 +1466,11 @@
       <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>145</v>
       </c>
@@ -1405,8 +1486,11 @@
       <c r="E22" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>145</v>
       </c>
@@ -1422,8 +1506,11 @@
       <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>145</v>
       </c>
@@ -1439,8 +1526,11 @@
       <c r="E24" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>145</v>
       </c>
@@ -1456,8 +1546,11 @@
       <c r="E25" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>145</v>
       </c>
@@ -1473,8 +1566,11 @@
       <c r="E26" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>145</v>
       </c>
@@ -1490,8 +1586,11 @@
       <c r="E27" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>145</v>
       </c>
@@ -1507,8 +1606,11 @@
       <c r="E28" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>146</v>
       </c>
@@ -1524,8 +1626,11 @@
       <c r="E29" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>146</v>
       </c>
@@ -1541,8 +1646,11 @@
       <c r="E30" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>146</v>
       </c>
@@ -1558,8 +1666,11 @@
       <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>146</v>
       </c>
@@ -1575,8 +1686,11 @@
       <c r="E32" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>146</v>
       </c>
@@ -1592,8 +1706,11 @@
       <c r="E33" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>146</v>
       </c>
@@ -1609,8 +1726,11 @@
       <c r="E34" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>146</v>
       </c>
@@ -1626,8 +1746,11 @@
       <c r="E35" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>146</v>
       </c>
@@ -1643,8 +1766,11 @@
       <c r="E36" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>147</v>
       </c>
@@ -1660,8 +1786,11 @@
       <c r="E37" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>147</v>
       </c>
@@ -1677,8 +1806,11 @@
       <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>147</v>
       </c>
@@ -1694,8 +1826,11 @@
       <c r="E39" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>147</v>
       </c>
@@ -1711,8 +1846,11 @@
       <c r="E40" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>147</v>
       </c>
@@ -1728,8 +1866,11 @@
       <c r="E41" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>148</v>
       </c>
@@ -1745,8 +1886,11 @@
       <c r="E42" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>148</v>
       </c>
@@ -1762,8 +1906,11 @@
       <c r="E43" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>148</v>
       </c>
@@ -1779,8 +1926,11 @@
       <c r="E44" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>148</v>
       </c>
@@ -1796,8 +1946,11 @@
       <c r="E45" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>148</v>
       </c>
@@ -1813,8 +1966,11 @@
       <c r="E46" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>148</v>
       </c>
@@ -1830,8 +1986,11 @@
       <c r="E47" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>148</v>
       </c>
@@ -1847,8 +2006,11 @@
       <c r="E48" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>148</v>
       </c>
@@ -1864,8 +2026,11 @@
       <c r="E49" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>148</v>
       </c>
@@ -1881,8 +2046,11 @@
       <c r="E50" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>148</v>
       </c>
@@ -1898,8 +2066,11 @@
       <c r="E51" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>148</v>
       </c>
@@ -1915,8 +2086,11 @@
       <c r="E52" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>148</v>
       </c>
@@ -1932,8 +2106,11 @@
       <c r="E53" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -1949,8 +2126,11 @@
       <c r="E54" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>148</v>
       </c>
@@ -1966,8 +2146,11 @@
       <c r="E55" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>148</v>
       </c>
@@ -1983,8 +2166,11 @@
       <c r="E56" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>149</v>
       </c>
@@ -2000,8 +2186,11 @@
       <c r="E57" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>149</v>
       </c>
@@ -2017,8 +2206,11 @@
       <c r="E58" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>149</v>
       </c>
@@ -2034,8 +2226,11 @@
       <c r="E59" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>149</v>
       </c>
@@ -2051,8 +2246,11 @@
       <c r="E60" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>149</v>
       </c>
@@ -2068,8 +2266,11 @@
       <c r="E61" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>149</v>
       </c>
@@ -2085,8 +2286,11 @@
       <c r="E62" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>149</v>
       </c>
@@ -2102,8 +2306,11 @@
       <c r="E63" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -2119,8 +2326,11 @@
       <c r="E64" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -2136,8 +2346,11 @@
       <c r="E65" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>149</v>
       </c>
@@ -2153,8 +2366,11 @@
       <c r="E66" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>149</v>
       </c>
@@ -2170,8 +2386,11 @@
       <c r="E67" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>149</v>
       </c>
@@ -2187,8 +2406,11 @@
       <c r="E68" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>149</v>
       </c>
@@ -2204,8 +2426,11 @@
       <c r="E69" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>149</v>
       </c>
@@ -2221,8 +2446,11 @@
       <c r="E70" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>150</v>
       </c>
@@ -2238,8 +2466,11 @@
       <c r="E71" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>150</v>
       </c>
@@ -2254,6 +2485,9 @@
       </c>
       <c r="E72" s="11" t="s">
         <v>140</v>
+      </c>
+      <c r="F72" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/prix/bicones.xlsx
+++ b/prix/bicones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1476A-415A-4C7D-9346-235F228FA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE044CAB-9F40-4614-94F1-C956B9C16476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
   <si>
     <t>43107100</t>
   </si>
@@ -575,13 +575,52 @@
     <t>3/4M-22</t>
   </si>
   <si>
-    <t>1/-15</t>
-  </si>
-  <si>
-    <t>1/-12</t>
-  </si>
-  <si>
     <t>disponible</t>
+  </si>
+  <si>
+    <t>1/4-6</t>
+  </si>
+  <si>
+    <t>1/4-8</t>
+  </si>
+  <si>
+    <t>3/8-6</t>
+  </si>
+  <si>
+    <t>3/8-8</t>
+  </si>
+  <si>
+    <t>3/8-10</t>
+  </si>
+  <si>
+    <t>3/8-12</t>
+  </si>
+  <si>
+    <t>3/8-15</t>
+  </si>
+  <si>
+    <t>1/2-10</t>
+  </si>
+  <si>
+    <t>1/2-12</t>
+  </si>
+  <si>
+    <t>1/2-15</t>
+  </si>
+  <si>
+    <t>3/4-15</t>
+  </si>
+  <si>
+    <t>1/2-18</t>
+  </si>
+  <si>
+    <t>3/4-22</t>
+  </si>
+  <si>
+    <t>4/4-22</t>
+  </si>
+  <si>
+    <t>4/4-28</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1067,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1101,7 @@
         <v>153</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
@@ -1878,7 +1917,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D42" s="9">
         <v>4.6000000000000005</v>
@@ -1898,7 +1937,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D43" s="9">
         <v>3.94</v>
@@ -1918,7 +1957,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D44" s="9">
         <v>4.28</v>
@@ -1938,7 +1977,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D45" s="9">
         <v>4.6000000000000005</v>
@@ -1958,7 +1997,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D46" s="9">
         <v>5.3</v>
@@ -1978,7 +2017,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D47" s="9">
         <v>4.0999999999999996</v>
@@ -1998,7 +2037,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D48" s="9">
         <v>4.95</v>
@@ -2018,7 +2057,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="D49" s="9">
         <v>3.46</v>
@@ -2038,7 +2077,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="D50" s="9">
         <v>4.04</v>
@@ -2058,7 +2097,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D51" s="9">
         <v>3.74</v>
@@ -2078,7 +2117,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D52" s="9">
         <v>5.63</v>
@@ -2098,7 +2137,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="D53" s="9">
         <v>6.86</v>
@@ -2118,7 +2157,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="D54" s="9">
         <v>5.45</v>
@@ -2138,7 +2177,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="D55" s="9">
         <v>11.3</v>
@@ -2158,7 +2197,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D56" s="9">
         <v>12.05</v>
@@ -2178,7 +2217,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D57" s="9">
         <v>3.11</v>
@@ -2198,7 +2237,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D58" s="9">
         <v>3.04</v>
@@ -2218,7 +2257,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D59" s="9">
         <v>3.34</v>
@@ -2238,7 +2277,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D60" s="9">
         <v>4.21</v>
@@ -2258,7 +2297,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D61" s="9">
         <v>4.05</v>
@@ -2278,7 +2317,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D62" s="9">
         <v>5.01</v>
@@ -2298,7 +2337,7 @@
         <v>123</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D63" s="9">
         <v>3.9</v>
@@ -2318,7 +2357,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="D64" s="9">
         <v>4.04</v>
@@ -2338,7 +2377,7 @@
         <v>127</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="D65" s="9">
         <v>4.04</v>
@@ -2358,7 +2397,7 @@
         <v>129</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D66" s="9">
         <v>3.86</v>
@@ -2378,7 +2417,7 @@
         <v>131</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D67" s="9">
         <v>5.8</v>
@@ -2398,7 +2437,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="D68" s="9">
         <v>6.86</v>
@@ -2418,7 +2457,7 @@
         <v>135</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="D69" s="9">
         <v>6.2700000000000005</v>
@@ -2438,7 +2477,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D70" s="9">
         <v>12.790000000000001</v>
@@ -2458,7 +2497,7 @@
         <v>139</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D71" s="9">
         <v>7.6</v>
@@ -2478,7 +2517,7 @@
         <v>141</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D72" s="9">
         <v>6.03</v>

--- a/prix/bicones.xlsx
+++ b/prix/bicones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE044CAB-9F40-4614-94F1-C956B9C16476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD99E7-7F71-412C-8960-4723A15DF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -724,11 +724,14 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F7123-4CF8-49A4-855C-11A40771464A}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,8 +1128,8 @@
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
-        <v>1</v>
+      <c r="F2" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1145,8 +1148,8 @@
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13">
-        <v>1</v>
+      <c r="F3" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1165,8 +1168,8 @@
       <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13">
-        <v>1</v>
+      <c r="F4" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1185,8 +1188,8 @@
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13">
-        <v>1</v>
+      <c r="F5" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1205,8 +1208,8 @@
       <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13">
-        <v>1</v>
+      <c r="F6" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1225,8 +1228,8 @@
       <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
+      <c r="F7" s="14">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1245,8 +1248,8 @@
       <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
+      <c r="F8" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1265,8 +1268,8 @@
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
+      <c r="F9" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1285,8 +1288,8 @@
       <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
+      <c r="F10" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1305,8 +1308,8 @@
       <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="13">
-        <v>1</v>
+      <c r="F11" s="14">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1325,8 +1328,8 @@
       <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="13">
-        <v>1</v>
+      <c r="F12" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1345,8 +1348,8 @@
       <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13">
-        <v>1</v>
+      <c r="F13" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1365,8 +1368,8 @@
       <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="13">
-        <v>1</v>
+      <c r="F14" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1385,8 +1388,8 @@
       <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13">
-        <v>1</v>
+      <c r="F15" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1405,8 +1408,8 @@
       <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="13">
-        <v>1</v>
+      <c r="F16" s="14">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1425,8 +1428,8 @@
       <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="13">
-        <v>1</v>
+      <c r="F17" s="14">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,8 +1448,8 @@
       <c r="E18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="13">
-        <v>1</v>
+      <c r="F18" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1465,8 +1468,8 @@
       <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="13">
-        <v>1</v>
+      <c r="F19" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,8 +1488,8 @@
       <c r="E20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="13">
-        <v>1</v>
+      <c r="F20" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1505,8 +1508,8 @@
       <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="13">
-        <v>1</v>
+      <c r="F21" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1525,8 +1528,8 @@
       <c r="E22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="13">
-        <v>1</v>
+      <c r="F22" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,8 +1548,8 @@
       <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="13">
-        <v>1</v>
+      <c r="F23" s="14">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,8 +1568,8 @@
       <c r="E24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="13">
-        <v>1</v>
+      <c r="F24" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1585,7 +1588,7 @@
       <c r="E25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1605,8 +1608,8 @@
       <c r="E26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="13">
-        <v>1</v>
+      <c r="F26" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1625,8 +1628,8 @@
       <c r="E27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="13">
-        <v>1</v>
+      <c r="F27" s="14">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,8 +1648,8 @@
       <c r="E28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="13">
-        <v>1</v>
+      <c r="F28" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1665,8 +1668,8 @@
       <c r="E29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="13">
-        <v>1</v>
+      <c r="F29" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1685,8 +1688,8 @@
       <c r="E30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="13">
-        <v>1</v>
+      <c r="F30" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1705,8 +1708,8 @@
       <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="13">
-        <v>1</v>
+      <c r="F31" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1725,8 +1728,8 @@
       <c r="E32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="13">
-        <v>1</v>
+      <c r="F32" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1745,8 +1748,8 @@
       <c r="E33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="13">
-        <v>1</v>
+      <c r="F33" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1765,8 +1768,8 @@
       <c r="E34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="13">
-        <v>1</v>
+      <c r="F34" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1785,8 +1788,8 @@
       <c r="E35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="13">
-        <v>1</v>
+      <c r="F35" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1805,8 +1808,8 @@
       <c r="E36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="13">
-        <v>1</v>
+      <c r="F36" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,8 +1828,8 @@
       <c r="E37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="13">
-        <v>1</v>
+      <c r="F37" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1845,8 +1848,8 @@
       <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="13">
-        <v>1</v>
+      <c r="F38" s="14">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1865,8 +1868,8 @@
       <c r="E39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="13">
-        <v>1</v>
+      <c r="F39" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,8 +1888,8 @@
       <c r="E40" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="13">
-        <v>1</v>
+      <c r="F40" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1905,8 +1908,8 @@
       <c r="E41" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="13">
-        <v>1</v>
+      <c r="F41" s="14">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,8 +1928,8 @@
       <c r="E42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="13">
-        <v>1</v>
+      <c r="F42" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1945,8 +1948,8 @@
       <c r="E43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="13">
-        <v>1</v>
+      <c r="F43" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1965,8 +1968,8 @@
       <c r="E44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="13">
-        <v>1</v>
+      <c r="F44" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1985,8 +1988,8 @@
       <c r="E45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="13">
-        <v>1</v>
+      <c r="F45" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2005,8 +2008,8 @@
       <c r="E46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="13">
-        <v>1</v>
+      <c r="F46" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2025,8 +2028,8 @@
       <c r="E47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="13">
-        <v>1</v>
+      <c r="F47" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2045,8 +2048,8 @@
       <c r="E48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="13">
-        <v>1</v>
+      <c r="F48" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2065,8 +2068,8 @@
       <c r="E49" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="13">
-        <v>1</v>
+      <c r="F49" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2085,8 +2088,8 @@
       <c r="E50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="13">
-        <v>1</v>
+      <c r="F50" s="14">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2105,7 +2108,7 @@
       <c r="E51" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2125,8 +2128,8 @@
       <c r="E52" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="13">
-        <v>1</v>
+      <c r="F52" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,8 +2148,8 @@
       <c r="E53" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="13">
-        <v>1</v>
+      <c r="F53" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2165,7 +2168,7 @@
       <c r="E54" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2185,8 +2188,8 @@
       <c r="E55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="13">
-        <v>1</v>
+      <c r="F55" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2205,8 +2208,8 @@
       <c r="E56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="13">
-        <v>1</v>
+      <c r="F56" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2225,8 +2228,8 @@
       <c r="E57" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="13">
-        <v>1</v>
+      <c r="F57" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2245,8 +2248,8 @@
       <c r="E58" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="13">
-        <v>1</v>
+      <c r="F58" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2265,8 +2268,8 @@
       <c r="E59" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="13">
-        <v>1</v>
+      <c r="F59" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2285,8 +2288,8 @@
       <c r="E60" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="13">
-        <v>1</v>
+      <c r="F60" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2305,8 +2308,8 @@
       <c r="E61" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="13">
-        <v>1</v>
+      <c r="F61" s="14">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2325,8 +2328,8 @@
       <c r="E62" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="13">
-        <v>1</v>
+      <c r="F62" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2345,8 +2348,8 @@
       <c r="E63" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="13">
-        <v>1</v>
+      <c r="F63" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2365,8 +2368,8 @@
       <c r="E64" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="13">
-        <v>1</v>
+      <c r="F64" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2385,8 +2388,8 @@
       <c r="E65" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="13">
-        <v>1</v>
+      <c r="F65" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2405,8 +2408,8 @@
       <c r="E66" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="13">
-        <v>1</v>
+      <c r="F66" s="14">
+        <v>-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2425,8 +2428,8 @@
       <c r="E67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="13">
-        <v>1</v>
+      <c r="F67" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2445,8 +2448,8 @@
       <c r="E68" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="13">
-        <v>1</v>
+      <c r="F68" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2465,8 +2468,8 @@
       <c r="E69" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="13">
-        <v>1</v>
+      <c r="F69" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2485,8 +2488,8 @@
       <c r="E70" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="13">
-        <v>1</v>
+      <c r="F70" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2506,7 +2509,7 @@
         <v>138</v>
       </c>
       <c r="F71" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,7 +2529,7 @@
         <v>140</v>
       </c>
       <c r="F72" s="13">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/prix/bicones.xlsx
+++ b/prix/bicones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD99E7-7F71-412C-8960-4723A15DF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E37F51-5D36-4760-9EC0-43AA0B078571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
   </bookViews>
@@ -730,7 +730,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F7123-4CF8-49A4-855C-11A40771464A}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2029,7 +2029,7 @@
         <v>90</v>
       </c>
       <c r="F47" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>98</v>
       </c>
       <c r="F51" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2409,7 +2409,7 @@
         <v>128</v>
       </c>
       <c r="F66" s="14">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2534,5 +2534,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prix/bicones.xlsx
+++ b/prix/bicones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E37F51-5D36-4760-9EC0-43AA0B078571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515D4043-3122-4AC1-9FC5-60875E8F773E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -730,8 +730,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F7123-4CF8-49A4-855C-11A40771464A}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,13 +1125,13 @@
       <c r="C2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="14">
         <v>4.92</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <v>19</v>
       </c>
     </row>
@@ -1142,13 +1145,13 @@
       <c r="C3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="14">
         <v>5.3100000000000005</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1162,13 +1165,13 @@
       <c r="C4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="14">
         <v>4.8600000000000003</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1182,13 +1185,13 @@
       <c r="C5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="14">
         <v>4.8899999999999997</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>5</v>
       </c>
     </row>
@@ -1202,14 +1205,14 @@
       <c r="C6" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="14">
         <v>5.03</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14">
-        <v>15</v>
+      <c r="F6" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1222,13 +1225,13 @@
       <c r="C7" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="14">
         <v>7.82</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <v>8</v>
       </c>
     </row>
@@ -1242,13 +1245,13 @@
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="14">
         <v>8.17</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="15">
         <v>10</v>
       </c>
     </row>
@@ -1262,13 +1265,13 @@
       <c r="C9" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="14">
         <v>13.1</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <v>12</v>
       </c>
     </row>
@@ -1282,13 +1285,13 @@
       <c r="C10" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="14">
         <v>6.49</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1302,14 +1305,14 @@
       <c r="C11" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="14">
         <v>4.8600000000000003</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14">
-        <v>26</v>
+      <c r="F11" s="15">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1322,14 +1325,14 @@
       <c r="C12" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="14">
         <v>6.28</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="14">
-        <v>9</v>
+      <c r="F12" s="15">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1342,13 +1345,13 @@
       <c r="C13" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="14">
         <v>3.11</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <v>10</v>
       </c>
     </row>
@@ -1362,13 +1365,13 @@
       <c r="C14" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="14">
         <v>4.62</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1382,13 +1385,13 @@
       <c r="C15" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="14">
         <v>4.62</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="15">
         <v>12</v>
       </c>
     </row>
@@ -1402,13 +1405,13 @@
       <c r="C16" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="14">
         <v>13.25</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="15">
         <v>8</v>
       </c>
     </row>
@@ -1422,14 +1425,14 @@
       <c r="C17" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="14">
         <v>5.45</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="14">
-        <v>13</v>
+      <c r="F17" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,13 +1445,13 @@
       <c r="C18" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="14">
         <v>6.3</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="15">
         <v>5</v>
       </c>
     </row>
@@ -1462,13 +1465,13 @@
       <c r="C19" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="14">
         <v>8.25</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="15">
         <v>10</v>
       </c>
     </row>
@@ -1482,13 +1485,13 @@
       <c r="C20" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="14">
         <v>11.700000000000001</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="15">
         <v>5</v>
       </c>
     </row>
@@ -1502,13 +1505,13 @@
       <c r="C21" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="14">
         <v>7.18</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <v>5</v>
       </c>
     </row>
@@ -1522,13 +1525,13 @@
       <c r="C22" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="14">
         <v>5.9</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1542,13 +1545,13 @@
       <c r="C23" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="14">
         <v>6.99</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="15">
         <v>6</v>
       </c>
     </row>
@@ -1562,13 +1565,13 @@
       <c r="C24" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="14">
         <v>7.68</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="15">
         <v>2</v>
       </c>
     </row>
@@ -1582,13 +1585,13 @@
       <c r="C25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="14">
         <v>7.38</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1602,13 +1605,13 @@
       <c r="C26" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="14">
         <v>12.5</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1622,13 +1625,13 @@
       <c r="C27" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="14">
         <v>9.56</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="15">
         <v>17</v>
       </c>
     </row>
@@ -1642,13 +1645,13 @@
       <c r="C28" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="14">
         <v>24.27</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1662,13 +1665,13 @@
       <c r="C29" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="14">
         <v>9.0500000000000007</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="15">
         <v>15</v>
       </c>
     </row>
@@ -1682,13 +1685,13 @@
       <c r="C30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="14">
         <v>6.63</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1702,13 +1705,13 @@
       <c r="C31" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="14">
         <v>4.16</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1722,13 +1725,13 @@
       <c r="C32" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="14">
         <v>5.01</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1742,13 +1745,13 @@
       <c r="C33" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <v>6.3500000000000005</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="15">
         <v>14</v>
       </c>
     </row>
@@ -1762,13 +1765,13 @@
       <c r="C34" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="14">
         <v>7.3500000000000005</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="15">
         <v>9</v>
       </c>
     </row>
@@ -1782,13 +1785,13 @@
       <c r="C35" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="14">
         <v>6.12</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1802,13 +1805,13 @@
       <c r="C36" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="14">
         <v>6.36</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="15">
         <v>9</v>
       </c>
     </row>
@@ -1822,13 +1825,13 @@
       <c r="C37" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="14">
         <v>4.62</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="15">
         <v>14</v>
       </c>
     </row>
@@ -1842,14 +1845,14 @@
       <c r="C38" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="14">
         <v>5.4</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="14">
-        <v>11</v>
+      <c r="F38" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1862,13 +1865,13 @@
       <c r="C39" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="14">
         <v>6.12</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1882,13 +1885,13 @@
       <c r="C40" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="14">
         <v>6.12</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1902,13 +1905,13 @@
       <c r="C41" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="14">
         <v>10.07</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="15">
         <v>25</v>
       </c>
     </row>
@@ -1922,13 +1925,13 @@
       <c r="C42" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="14">
         <v>4.6000000000000005</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1942,13 +1945,13 @@
       <c r="C43" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="14">
         <v>3.94</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1962,13 +1965,13 @@
       <c r="C44" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="14">
         <v>4.28</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1982,13 +1985,13 @@
       <c r="C45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="14">
         <v>4.6000000000000005</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2002,13 +2005,13 @@
       <c r="C46" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="14">
         <v>5.3</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2022,14 +2025,14 @@
       <c r="C47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="14">
         <v>4.0999999999999996</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="14">
-        <v>9</v>
+      <c r="F47" s="15">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2042,13 +2045,13 @@
       <c r="C48" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="14">
         <v>4.95</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="15">
         <v>5</v>
       </c>
     </row>
@@ -2062,13 +2065,13 @@
       <c r="C49" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="14">
         <v>3.46</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2082,13 +2085,13 @@
       <c r="C50" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="14">
         <v>4.04</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="15">
         <v>8</v>
       </c>
     </row>
@@ -2102,13 +2105,13 @@
       <c r="C51" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="14">
         <v>3.74</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2122,13 +2125,13 @@
       <c r="C52" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="14">
         <v>5.63</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2142,13 +2145,13 @@
       <c r="C53" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="14">
         <v>6.86</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2162,13 +2165,13 @@
       <c r="C54" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="14">
         <v>5.45</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2182,13 +2185,13 @@
       <c r="C55" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="14">
         <v>11.3</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2202,13 +2205,13 @@
       <c r="C56" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="14">
         <v>12.05</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="15">
         <v>4</v>
       </c>
     </row>
@@ -2222,13 +2225,13 @@
       <c r="C57" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="14">
         <v>3.11</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2242,13 +2245,13 @@
       <c r="C58" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="14">
         <v>3.04</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2262,13 +2265,13 @@
       <c r="C59" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="14">
         <v>3.34</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2282,13 +2285,13 @@
       <c r="C60" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="14">
         <v>4.21</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2302,14 +2305,14 @@
       <c r="C61" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="14">
         <v>4.05</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="14">
-        <v>6</v>
+      <c r="F61" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2322,13 +2325,13 @@
       <c r="C62" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="14">
         <v>5.01</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="15">
         <v>10</v>
       </c>
     </row>
@@ -2342,13 +2345,13 @@
       <c r="C63" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="14">
         <v>3.9</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2362,13 +2365,13 @@
       <c r="C64" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="14">
         <v>4.04</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2382,13 +2385,13 @@
       <c r="C65" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="14">
         <v>4.04</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2402,14 +2405,14 @@
       <c r="C66" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="14">
         <v>3.86</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="14">
-        <v>-3</v>
+      <c r="F66" s="15">
+        <v>-4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2422,13 +2425,13 @@
       <c r="C67" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="14">
         <v>5.8</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2442,13 +2445,13 @@
       <c r="C68" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="14">
         <v>6.86</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2462,14 +2465,14 @@
       <c r="C69" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="14">
         <v>6.2700000000000005</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="14">
-        <v>9</v>
+      <c r="F69" s="15">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2482,13 +2485,13 @@
       <c r="C70" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="14">
         <v>12.790000000000001</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="15">
         <v>0</v>
       </c>
     </row>
